--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Alcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Alcam.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H2">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I2">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J2">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="N2">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="O2">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="P2">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="Q2">
-        <v>0.8880609624585002</v>
+        <v>4.948269238410751</v>
       </c>
       <c r="R2">
-        <v>3.552243849834001</v>
+        <v>19.793076953643</v>
       </c>
       <c r="S2">
-        <v>0.0003899447841462138</v>
+        <v>0.0002873879696601062</v>
       </c>
       <c r="T2">
-        <v>0.0001993262146467152</v>
+        <v>0.0001477190437050574</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H3">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I3">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J3">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.880765</v>
       </c>
       <c r="O3">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="P3">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="Q3">
-        <v>5.815118084778334</v>
+        <v>21.87139066821917</v>
       </c>
       <c r="R3">
-        <v>34.89070850867</v>
+        <v>131.228344009315</v>
       </c>
       <c r="S3">
-        <v>0.002553400118023538</v>
+        <v>0.001270257185884505</v>
       </c>
       <c r="T3">
-        <v>0.001957814031742254</v>
+        <v>0.0009793790793344249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H4">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I4">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J4">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="N4">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="O4">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="P4">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="Q4">
-        <v>178.670718956708</v>
+        <v>798.9986330127124</v>
       </c>
       <c r="R4">
-        <v>1072.024313740248</v>
+        <v>4793.991798076274</v>
       </c>
       <c r="S4">
-        <v>0.07845375248107267</v>
+        <v>0.04640462833353673</v>
       </c>
       <c r="T4">
-        <v>0.06015424545729646</v>
+        <v>0.03577836258608467</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H5">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I5">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J5">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="N5">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="O5">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="P5">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="Q5">
-        <v>4.467640968751501</v>
+        <v>29.50475689107525</v>
       </c>
       <c r="R5">
-        <v>17.870563875006</v>
+        <v>118.019027564301</v>
       </c>
       <c r="S5">
-        <v>0.001961727141321108</v>
+        <v>0.001713591514467485</v>
       </c>
       <c r="T5">
-        <v>0.001002766702227872</v>
+        <v>0.0008807957414418382</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H6">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I6">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J6">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="N6">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="O6">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="P6">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="Q6">
-        <v>1.066658533259</v>
+        <v>2201.405363484559</v>
       </c>
       <c r="R6">
-        <v>6.399951199554001</v>
+        <v>13208.43218090735</v>
       </c>
       <c r="S6">
-        <v>0.0004683664175012478</v>
+        <v>0.1278542834532358</v>
       </c>
       <c r="T6">
-        <v>0.0003591189401567735</v>
+        <v>0.09857673848166511</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H7">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I7">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J7">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.079986</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="N7">
-        <v>66.239958</v>
+        <v>97.308853</v>
       </c>
       <c r="O7">
-        <v>0.3420707081671685</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="P7">
-        <v>0.3441883178524182</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="Q7">
-        <v>99.25702218525402</v>
+        <v>548.4176288539272</v>
       </c>
       <c r="R7">
-        <v>595.5421331115241</v>
+        <v>3290.505773123563</v>
       </c>
       <c r="S7">
-        <v>0.04358344722627478</v>
+        <v>0.03185126380325243</v>
       </c>
       <c r="T7">
-        <v>0.03341751413301695</v>
+        <v>0.0245575949232249</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.389289</v>
       </c>
       <c r="I8">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J8">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="N8">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="O8">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="P8">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="Q8">
-        <v>0.0914853752945</v>
+        <v>0.1355327830395</v>
       </c>
       <c r="R8">
-        <v>0.5489122517670001</v>
+        <v>0.813196698237</v>
       </c>
       <c r="S8">
-        <v>4.017094144414242E-05</v>
+        <v>7.871538403317646E-06</v>
       </c>
       <c r="T8">
-        <v>3.080098268676959E-05</v>
+        <v>6.069022966415046E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.389289</v>
       </c>
       <c r="I9">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J9">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.880765</v>
       </c>
       <c r="O9">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="P9">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="Q9">
         <v>0.5990560140094444</v>
@@ -1013,10 +1013,10 @@
         <v>5.391504126085001</v>
       </c>
       <c r="S9">
-        <v>0.0002630436174423333</v>
+        <v>3.479226438255489E-05</v>
       </c>
       <c r="T9">
-        <v>0.0003025321892681691</v>
+        <v>4.023769702418911E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.389289</v>
       </c>
       <c r="I10">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J10">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="N10">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="O10">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="P10">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="Q10">
-        <v>18.40612127870266</v>
+        <v>21.88452227626745</v>
       </c>
       <c r="R10">
-        <v>165.655091508324</v>
+        <v>196.960700486407</v>
       </c>
       <c r="S10">
-        <v>0.00808207014203504</v>
+        <v>0.001271019849756162</v>
       </c>
       <c r="T10">
-        <v>0.009295364767498284</v>
+        <v>0.001469950649485816</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.389289</v>
       </c>
       <c r="I11">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J11">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="N11">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="O11">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="P11">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="Q11">
-        <v>0.4602429652755</v>
+        <v>0.8081334344765</v>
       </c>
       <c r="R11">
-        <v>2.761457791653</v>
+        <v>4.848800606859</v>
       </c>
       <c r="S11">
-        <v>0.0002020912429844083</v>
+        <v>4.6935163742877E-05</v>
       </c>
       <c r="T11">
-        <v>0.000154953024562937</v>
+        <v>3.61874098928253E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.389289</v>
       </c>
       <c r="I12">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J12">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="N12">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="O12">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="P12">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="Q12">
-        <v>0.1098839610696667</v>
+        <v>60.29635436873889</v>
       </c>
       <c r="R12">
-        <v>0.988955649627</v>
+        <v>542.66718931865</v>
       </c>
       <c r="S12">
-        <v>4.824970277020198E-05</v>
+        <v>0.003501920777759371</v>
       </c>
       <c r="T12">
-        <v>5.549303325638662E-05</v>
+        <v>0.004050015995189069</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.389289</v>
       </c>
       <c r="I13">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J13">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.079986</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="N13">
-        <v>66.239958</v>
+        <v>97.308853</v>
       </c>
       <c r="O13">
-        <v>0.3420707081671685</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="P13">
-        <v>0.3441883178524182</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="Q13">
-        <v>10.22516055665133</v>
+        <v>15.02112434172411</v>
       </c>
       <c r="R13">
-        <v>92.026445009862</v>
+        <v>135.190119075517</v>
       </c>
       <c r="S13">
-        <v>0.004489835939962412</v>
+        <v>0.0008724041111325139</v>
       </c>
       <c r="T13">
-        <v>0.005163858030767534</v>
+        <v>0.001008946469261951</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H14">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I14">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J14">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="N14">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="O14">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="P14">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="Q14">
-        <v>1.3430142965995</v>
+        <v>2.185058820105</v>
       </c>
       <c r="R14">
-        <v>8.058085779597002</v>
+        <v>13.11035292063</v>
       </c>
       <c r="S14">
-        <v>0.0005897133666848286</v>
+        <v>0.0001269049010153633</v>
       </c>
       <c r="T14">
-        <v>0.000452161451647148</v>
+        <v>9.784475655841983E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H15">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I15">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J15">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.880765</v>
       </c>
       <c r="O15">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="P15">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="Q15">
-        <v>8.79420113530389</v>
+        <v>9.657977928238891</v>
       </c>
       <c r="R15">
-        <v>79.14781021773501</v>
+        <v>86.92180135415002</v>
       </c>
       <c r="S15">
-        <v>0.003861506144748161</v>
+        <v>0.000560920704611889</v>
       </c>
       <c r="T15">
-        <v>0.004441202258402098</v>
+        <v>0.0006487119412119873</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H16">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I16">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J16">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="N16">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="O16">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="P16">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="Q16">
-        <v>270.2036685390094</v>
+        <v>352.822153807659</v>
       </c>
       <c r="R16">
-        <v>2431.833016851084</v>
+        <v>3175.399384268931</v>
       </c>
       <c r="S16">
-        <v>0.1186455836458219</v>
+        <v>0.02049137537763704</v>
       </c>
       <c r="T16">
-        <v>0.1364568679384102</v>
+        <v>0.0236985366916133</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H17">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I17">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J17">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="N17">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="O17">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="P17">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="Q17">
-        <v>6.756411943270502</v>
+        <v>13.028723008735</v>
       </c>
       <c r="R17">
-        <v>40.53847165962301</v>
+        <v>78.17233805241001</v>
       </c>
       <c r="S17">
-        <v>0.002966719299909138</v>
+        <v>0.0007566884646613994</v>
       </c>
       <c r="T17">
-        <v>0.002274725622750645</v>
+        <v>0.0005834132332398726</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H18">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I18">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J18">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="N18">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="O18">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="P18">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="Q18">
-        <v>1.613107343206334</v>
+        <v>972.0975101292779</v>
       </c>
       <c r="R18">
-        <v>14.517966088857</v>
+        <v>8748.8775911635</v>
       </c>
       <c r="S18">
-        <v>0.0007083103765870815</v>
+        <v>0.05645794848410948</v>
       </c>
       <c r="T18">
-        <v>0.0008146431796895005</v>
+        <v>0.06529433671612188</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H19">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I19">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J19">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.079986</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="N19">
-        <v>66.239958</v>
+        <v>97.308853</v>
       </c>
       <c r="O19">
-        <v>0.3420707081671685</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="P19">
-        <v>0.3441883178524182</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="Q19">
-        <v>150.1063614638047</v>
+        <v>242.1704881630922</v>
       </c>
       <c r="R19">
-        <v>1350.957253174242</v>
+        <v>2179.53439346783</v>
       </c>
       <c r="S19">
-        <v>0.0659112326680075</v>
+        <v>0.01406489452201685</v>
       </c>
       <c r="T19">
-        <v>0.07580594317513689</v>
+        <v>0.01626622970644754</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H20">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I20">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J20">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="N20">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="O20">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="P20">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="Q20">
-        <v>1.7287326784425</v>
+        <v>4.45061707314525</v>
       </c>
       <c r="R20">
-        <v>6.91493071377</v>
+        <v>17.802468292581</v>
       </c>
       <c r="S20">
-        <v>0.000759081098752011</v>
+        <v>0.0002584850869587313</v>
       </c>
       <c r="T20">
-        <v>0.0003880158632084036</v>
+        <v>0.0001328627983374586</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H21">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I21">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J21">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.880765</v>
       </c>
       <c r="O21">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="P21">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="Q21">
-        <v>11.31992631939167</v>
+        <v>19.67176401110083</v>
       </c>
       <c r="R21">
-        <v>67.91955791635</v>
+        <v>118.030584066605</v>
       </c>
       <c r="S21">
-        <v>0.004970544153800145</v>
+        <v>0.001142506206998296</v>
       </c>
       <c r="T21">
-        <v>0.003811154006383045</v>
+        <v>0.0008808819895513626</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H22">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I22">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J22">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="N22">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="O22">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="P22">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="Q22">
-        <v>347.80710288874</v>
+        <v>718.6425770656319</v>
       </c>
       <c r="R22">
-        <v>2086.84261733244</v>
+        <v>4311.855462393792</v>
       </c>
       <c r="S22">
-        <v>0.1527210083472255</v>
+        <v>0.04173767052346771</v>
       </c>
       <c r="T22">
-        <v>0.1170985036671278</v>
+        <v>0.03218009847539175</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H23">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I23">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J23">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="N23">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="O23">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="P23">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="Q23">
-        <v>8.6968769766075</v>
+        <v>26.53743529941675</v>
       </c>
       <c r="R23">
-        <v>34.78750790643</v>
+        <v>106.149741197667</v>
       </c>
       <c r="S23">
-        <v>0.003818771411819452</v>
+        <v>0.001541253978559835</v>
       </c>
       <c r="T23">
-        <v>0.001952023160883339</v>
+        <v>0.000792213272144767</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H24">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I24">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J24">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="N24">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="O24">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="P24">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="Q24">
-        <v>2.076397388395</v>
+        <v>1980.007922686242</v>
       </c>
       <c r="R24">
-        <v>12.45838433037</v>
+        <v>11880.04753611745</v>
       </c>
       <c r="S24">
-        <v>0.0009117395828073992</v>
+        <v>0.1149958560044887</v>
       </c>
       <c r="T24">
-        <v>0.0006990743581138578</v>
+        <v>0.0886627817047361</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H25">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I25">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J25">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>22.079986</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="N25">
-        <v>66.239958</v>
+        <v>97.308853</v>
       </c>
       <c r="O25">
-        <v>0.3420707081671685</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="P25">
-        <v>0.3441883178524182</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="Q25">
-        <v>193.21743108887</v>
+        <v>493.2627439195368</v>
       </c>
       <c r="R25">
-        <v>1159.30458653322</v>
+        <v>2959.576463517221</v>
       </c>
       <c r="S25">
-        <v>0.08484116816783989</v>
+        <v>0.02864795176940237</v>
       </c>
       <c r="T25">
-        <v>0.06505178265479734</v>
+        <v>0.02208781413757367</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H26">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I26">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J26">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="N26">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="O26">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="P26">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="Q26">
-        <v>1.240470778541</v>
+        <v>10.3573834397145</v>
       </c>
       <c r="R26">
-        <v>7.442824671246</v>
+        <v>62.144300638287</v>
       </c>
       <c r="S26">
-        <v>0.0005446868294252495</v>
+        <v>0.0006015411155531133</v>
       </c>
       <c r="T26">
-        <v>0.0004176374513444439</v>
+        <v>0.0004637933093226185</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H27">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I27">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J27">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.880765</v>
       </c>
       <c r="O27">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="P27">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="Q27">
-        <v>8.122735220747776</v>
+        <v>45.779719856815</v>
       </c>
       <c r="R27">
-        <v>73.10461698672999</v>
+        <v>412.0174787113351</v>
       </c>
       <c r="S27">
-        <v>0.00356666756701329</v>
+        <v>0.002658816670510038</v>
       </c>
       <c r="T27">
-        <v>0.004102101993320022</v>
+        <v>0.003074955353710438</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H28">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I28">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J28">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="N28">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="O28">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="P28">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="Q28">
-        <v>249.5727379268346</v>
+        <v>1672.410051110773</v>
       </c>
       <c r="R28">
-        <v>2246.154641341512</v>
+        <v>15051.69045999696</v>
       </c>
       <c r="S28">
-        <v>0.1095866067012341</v>
+        <v>0.09713103832285511</v>
       </c>
       <c r="T28">
-        <v>0.126037941396021</v>
+        <v>0.1123332833041936</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H29">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I29">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J29">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="N29">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="O29">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="P29">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="Q29">
-        <v>6.240537874118999</v>
+        <v>61.7573672112015</v>
       </c>
       <c r="R29">
-        <v>37.443227244714</v>
+        <v>370.544203267209</v>
       </c>
       <c r="S29">
-        <v>0.002740200613641232</v>
+        <v>0.003586774186944018</v>
       </c>
       <c r="T29">
-        <v>0.002101042908750301</v>
+        <v>0.002765433362649056</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H30">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I30">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J30">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="N30">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="O30">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="P30">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="Q30">
-        <v>1.489941340880666</v>
+        <v>4607.83323568235</v>
       </c>
       <c r="R30">
-        <v>13.409472067926</v>
+        <v>41470.49912114115</v>
       </c>
       <c r="S30">
-        <v>0.0006542285711465245</v>
+        <v>0.2676159631444018</v>
       </c>
       <c r="T30">
-        <v>0.0007524425182227999</v>
+        <v>0.3095012708986046</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H31">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I31">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J31">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>22.079986</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="N31">
-        <v>66.239958</v>
+        <v>97.308853</v>
       </c>
       <c r="O31">
-        <v>0.3420707081671685</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="P31">
-        <v>0.3441883178524182</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="Q31">
-        <v>138.6452516108173</v>
+        <v>1147.910793343063</v>
       </c>
       <c r="R31">
-        <v>1247.807264497356</v>
+        <v>10331.19714008757</v>
       </c>
       <c r="S31">
-        <v>0.06087869526727915</v>
+        <v>0.06666891722240607</v>
       </c>
       <c r="T31">
-        <v>0.07001791238305709</v>
+        <v>0.07710345215331821</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H32">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I32">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J32">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="N32">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="O32">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="P32">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="Q32">
-        <v>1.678305089898</v>
+        <v>1.555939594818</v>
       </c>
       <c r="R32">
-        <v>10.069830539388</v>
+        <v>9.335637568908</v>
       </c>
       <c r="S32">
-        <v>0.0007369385027352224</v>
+        <v>9.036661093488285E-05</v>
       </c>
       <c r="T32">
-        <v>0.0005650460070875759</v>
+        <v>6.967342456586952E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H33">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I33">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J33">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.880765</v>
       </c>
       <c r="O33">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="P33">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="Q33">
-        <v>10.98972108066</v>
+        <v>6.877265786237778</v>
       </c>
       <c r="R33">
-        <v>98.90748972594001</v>
+        <v>61.89539207614</v>
       </c>
       <c r="S33">
-        <v>0.004825552068814554</v>
+        <v>0.0003994211624092162</v>
       </c>
       <c r="T33">
-        <v>0.005549972457043395</v>
+        <v>0.0004619356630932591</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H34">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I34">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J34">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="N34">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="O34">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="P34">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="Q34">
-        <v>337.661477890704</v>
+        <v>251.2380691939098</v>
       </c>
       <c r="R34">
-        <v>3038.953301016336</v>
+        <v>2261.142622745188</v>
       </c>
       <c r="S34">
-        <v>0.1482660962216714</v>
+        <v>0.01459152587059968</v>
       </c>
       <c r="T34">
-        <v>0.1705240641089527</v>
+        <v>0.01687528557055338</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H35">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I35">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J35">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="N35">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="O35">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="P35">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="Q35">
-        <v>8.443186779582001</v>
+        <v>9.277510432525998</v>
       </c>
       <c r="R35">
-        <v>50.65912067749201</v>
+        <v>55.66506259515599</v>
       </c>
       <c r="S35">
-        <v>0.003707376841738075</v>
+        <v>0.0005388237297209855</v>
       </c>
       <c r="T35">
-        <v>0.002842623195039804</v>
+        <v>0.0004154376721515834</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H36">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I36">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J36">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="N36">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="O36">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="P36">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="Q36">
-        <v>2.015828328492</v>
+        <v>692.2124897129555</v>
       </c>
       <c r="R36">
-        <v>18.142454956428</v>
+        <v>6229.912407416599</v>
       </c>
       <c r="S36">
-        <v>0.0008851438985151533</v>
+        <v>0.04020265115078207</v>
       </c>
       <c r="T36">
-        <v>0.001018023261841194</v>
+        <v>0.04649487825188649</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H37">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I37">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J37">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>22.079986</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="N37">
-        <v>66.239958</v>
+        <v>97.308853</v>
       </c>
       <c r="O37">
-        <v>0.3420707081671685</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="P37">
-        <v>0.3441883178524182</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="Q37">
-        <v>187.581227622552</v>
+        <v>172.4450837489364</v>
       </c>
       <c r="R37">
-        <v>1688.231048602968</v>
+        <v>1552.005753740428</v>
       </c>
       <c r="S37">
-        <v>0.08236632889780474</v>
+        <v>0.01001534882374159</v>
       </c>
       <c r="T37">
-        <v>0.09473130747564236</v>
+        <v>0.01158287851374651</v>
       </c>
     </row>
   </sheetData>
